--- a/var_info/indv_panel_var_info/BBRS_DE_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/BBRS_DE_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6ED1CC-CA06-DD48-91B8-90574C9FA2E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760FE457-94D4-584D-AD86-DFBF4F31DA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$C$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$Q$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="146">
   <si>
     <t>SOEPdri</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>alc</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -832,21 +835,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -893,10 +896,13 @@
         <v>87</v>
       </c>
       <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -930,8 +936,11 @@
       <c r="L2">
         <v>365</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="L3">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -980,29 +992,39 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -1016,29 +1038,38 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -1046,35 +1077,41 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -1082,35 +1119,41 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -1124,10 +1167,10 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>62</v>
@@ -1136,7 +1179,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
@@ -1145,8 +1188,11 @@
       <c r="L8" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -1160,10 +1206,10 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>62</v>
@@ -1172,7 +1218,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
         <v>52</v>
@@ -1181,8 +1227,11 @@
       <c r="L9" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -1190,38 +1239,38 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
         <v>52</v>
       </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>180</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -1229,38 +1278,38 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
         <v>52</v>
       </c>
-      <c r="M11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>180</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -1274,10 +1323,10 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
@@ -1286,16 +1335,20 @@
         <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
         <v>52</v>
       </c>
-      <c r="L12">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>180</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -1309,10 +1362,10 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
         <v>62</v>
@@ -1321,124 +1374,142 @@
         <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
       </c>
-      <c r="L13">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>180</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16">
         <v>365</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="1">
-        <v>11</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="1">
-        <v>11</v>
-      </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="1">
-        <v>11</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -1452,29 +1523,31 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="1">
-        <v>11</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="L17">
+        <v>365</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -1482,33 +1555,41 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -1516,33 +1597,41 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J19" t="s">
         <v>52</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -1550,19 +1639,19 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
         <v>55</v>
@@ -1573,10 +1662,18 @@
       <c r="J20" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1584,19 +1681,19 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
         <v>55</v>
@@ -1607,10 +1704,18 @@
       <c r="J21" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -1624,10 +1729,10 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
@@ -1636,13 +1741,18 @@
         <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="P22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -1656,10 +1766,10 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
         <v>54</v>
@@ -1668,13 +1778,18 @@
         <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="P23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -1688,29 +1803,30 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
         <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="1">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -1724,29 +1840,30 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
         <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="1">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>143</v>
       </c>
@@ -1760,29 +1877,30 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="1">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -1796,29 +1914,30 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>118</v>
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
       </c>
       <c r="G27" t="s">
         <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="1">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -1826,38 +1945,36 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
         <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
         <v>52</v>
       </c>
-      <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="P28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -1865,38 +1982,36 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
         <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J29" t="s">
         <v>52</v>
       </c>
-      <c r="M29" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="P29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -1910,28 +2025,30 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
         <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
         <v>52</v>
       </c>
-      <c r="L30">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="P30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -1945,28 +2062,30 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
         <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
         <v>52</v>
       </c>
-      <c r="L31">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="P31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -1974,38 +2093,36 @@
         <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="J32" t="s">
         <v>52</v>
       </c>
-      <c r="M32" t="s">
-        <v>89</v>
-      </c>
-      <c r="N32" t="s">
-        <v>51</v>
-      </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="P32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -2013,38 +2130,36 @@
         <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
         <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
         <v>52</v>
       </c>
-      <c r="M33" t="s">
-        <v>89</v>
-      </c>
-      <c r="N33" t="s">
-        <v>51</v>
-      </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="P33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -2052,19 +2167,19 @@
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
         <v>55</v>
@@ -2075,15 +2190,11 @@
       <c r="J34" t="s">
         <v>52</v>
       </c>
-      <c r="M34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N34" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -2091,19 +2202,19 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H35" t="s">
         <v>55</v>
@@ -2114,15 +2225,11 @@
       <c r="J35" t="s">
         <v>52</v>
       </c>
-      <c r="M35" t="s">
-        <v>53</v>
-      </c>
-      <c r="N35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -2159,9 +2266,12 @@
       <c r="N36" t="s">
         <v>51</v>
       </c>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>84</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -2198,9 +2308,12 @@
       <c r="N37" t="s">
         <v>51</v>
       </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -2237,9 +2350,12 @@
       <c r="N38" t="s">
         <v>51</v>
       </c>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -2276,9 +2392,12 @@
       <c r="N39" t="s">
         <v>51</v>
       </c>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -2286,16 +2405,16 @@
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
         <v>50</v>
@@ -2310,14 +2429,17 @@
         <v>52</v>
       </c>
       <c r="M40" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N40" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -2325,16 +2447,16 @@
         <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -2349,14 +2471,17 @@
         <v>52</v>
       </c>
       <c r="M41" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N41" t="s">
         <v>51</v>
       </c>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -2370,36 +2495,31 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H42" t="s">
         <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="1">
-        <v>6</v>
-      </c>
-      <c r="L42" s="1"/>
-      <c r="M42" t="s">
-        <v>64</v>
-      </c>
-      <c r="N42" t="s">
-        <v>65</v>
-      </c>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="L42">
+        <v>365</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -2413,35 +2533,31 @@
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
         <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="1">
-        <v>6</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="M43" t="s">
-        <v>64</v>
-      </c>
-      <c r="N43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="L43">
+        <v>365</v>
+      </c>
+      <c r="P43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -2455,10 +2571,10 @@
         <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G44" t="s">
         <v>54</v>
@@ -2467,15 +2583,20 @@
         <v>55</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="J44" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K44" s="1">
+        <v>11</v>
+      </c>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -2489,10 +2610,10 @@
         <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
         <v>54</v>
@@ -2501,15 +2622,20 @@
         <v>55</v>
       </c>
       <c r="I45" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K45" s="1">
+        <v>11</v>
+      </c>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -2523,10 +2649,10 @@
         <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
         <v>54</v>
@@ -2535,7 +2661,7 @@
         <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="J46" t="s">
         <v>56</v>
@@ -2544,8 +2670,11 @@
         <v>11</v>
       </c>
       <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -2559,10 +2688,10 @@
         <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
         <v>54</v>
@@ -2571,7 +2700,7 @@
         <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="J47" t="s">
         <v>56</v>
@@ -2580,8 +2709,11 @@
         <v>11</v>
       </c>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -2595,10 +2727,10 @@
         <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G48" t="s">
         <v>54</v>
@@ -2607,7 +2739,7 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
         <v>56</v>
@@ -2616,8 +2748,11 @@
         <v>11</v>
       </c>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -2631,10 +2766,10 @@
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2643,7 +2778,7 @@
         <v>55</v>
       </c>
       <c r="I49" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J49" t="s">
         <v>56</v>
@@ -2652,8 +2787,11 @@
         <v>11</v>
       </c>
       <c r="L49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -2667,10 +2805,10 @@
         <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -2682,12 +2820,17 @@
         <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K50" s="1">
+        <v>11</v>
+      </c>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -2701,10 +2844,10 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
         <v>54</v>
@@ -2716,12 +2859,17 @@
         <v>100</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K51" s="1">
+        <v>11</v>
+      </c>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -2735,19 +2883,19 @@
         <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G52" t="s">
         <v>54</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J52" t="s">
         <v>56</v>
@@ -2756,8 +2904,11 @@
         <v>11</v>
       </c>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -2771,19 +2922,19 @@
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G53" t="s">
         <v>54</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J53" t="s">
         <v>56</v>
@@ -2792,8 +2943,11 @@
         <v>11</v>
       </c>
       <c r="L53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -2807,19 +2961,19 @@
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
         <v>54</v>
       </c>
       <c r="H54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
@@ -2828,8 +2982,11 @@
         <v>11</v>
       </c>
       <c r="L54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -2843,19 +3000,19 @@
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
         <v>54</v>
       </c>
       <c r="H55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -2864,8 +3021,11 @@
         <v>11</v>
       </c>
       <c r="L55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2879,10 +3039,10 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G56" t="s">
         <v>54</v>
@@ -2891,7 +3051,7 @@
         <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -2900,8 +3060,11 @@
         <v>11</v>
       </c>
       <c r="L56" s="1"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -2915,10 +3078,10 @@
         <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G57" t="s">
         <v>54</v>
@@ -2927,7 +3090,7 @@
         <v>55</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="J57" t="s">
         <v>56</v>
@@ -2936,8 +3099,11 @@
         <v>11</v>
       </c>
       <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -2951,10 +3117,10 @@
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G58" t="s">
         <v>54</v>
@@ -2963,7 +3129,7 @@
         <v>55</v>
       </c>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="J58" t="s">
         <v>56</v>
@@ -2972,8 +3138,11 @@
         <v>11</v>
       </c>
       <c r="L58" s="1"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>143</v>
       </c>
@@ -2987,10 +3156,10 @@
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G59" t="s">
         <v>54</v>
@@ -2999,7 +3168,7 @@
         <v>55</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="J59" t="s">
         <v>56</v>
@@ -3008,8 +3177,11 @@
         <v>11</v>
       </c>
       <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -3023,10 +3195,10 @@
         <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
         <v>54</v>
@@ -3035,15 +3207,20 @@
         <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K60" s="1">
+        <v>11</v>
+      </c>
       <c r="L60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -3057,10 +3234,10 @@
         <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
         <v>54</v>
@@ -3069,15 +3246,20 @@
         <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61" t="s">
-        <v>52</v>
-      </c>
-      <c r="K61" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K61" s="1">
+        <v>11</v>
+      </c>
       <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -3091,10 +3273,10 @@
         <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G62" t="s">
         <v>54</v>
@@ -3103,7 +3285,7 @@
         <v>55</v>
       </c>
       <c r="I62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J62" t="s">
         <v>56</v>
@@ -3112,8 +3294,11 @@
         <v>11</v>
       </c>
       <c r="L62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -3127,10 +3312,10 @@
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G63" t="s">
         <v>54</v>
@@ -3139,7 +3324,7 @@
         <v>55</v>
       </c>
       <c r="I63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J63" t="s">
         <v>56</v>
@@ -3148,8 +3333,11 @@
         <v>11</v>
       </c>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -3184,8 +3372,11 @@
         <v>11</v>
       </c>
       <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -3220,8 +3411,11 @@
         <v>11</v>
       </c>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -3235,10 +3429,10 @@
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G66" t="s">
         <v>54</v>
@@ -3247,15 +3441,20 @@
         <v>55</v>
       </c>
       <c r="I66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J66" t="s">
-        <v>52</v>
-      </c>
-      <c r="K66" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K66" s="1">
+        <v>11</v>
+      </c>
       <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>143</v>
       </c>
@@ -3269,10 +3468,10 @@
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
@@ -3281,15 +3480,20 @@
         <v>55</v>
       </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J67" t="s">
-        <v>52</v>
-      </c>
-      <c r="K67" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="K67" s="1">
+        <v>11</v>
+      </c>
       <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -3303,10 +3507,10 @@
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G68" t="s">
         <v>54</v>
@@ -3324,8 +3528,11 @@
         <v>11</v>
       </c>
       <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -3339,10 +3546,10 @@
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G69" t="s">
         <v>54</v>
@@ -3360,8 +3567,11 @@
         <v>11</v>
       </c>
       <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>143</v>
       </c>
@@ -3375,10 +3585,10 @@
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G70" t="s">
         <v>54</v>
@@ -3396,8 +3606,11 @@
         <v>11</v>
       </c>
       <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -3411,10 +3624,10 @@
         <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G71" t="s">
         <v>54</v>
@@ -3432,8 +3645,16 @@
         <v>11</v>
       </c>
       <c r="L71" s="1"/>
+      <c r="P71">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q71">
+      <sortCondition ref="F1:F71"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3441,15 +3662,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3496,10 +3717,13 @@
         <v>87</v>
       </c>
       <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3518,11 +3742,11 @@
       <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -3541,11 +3765,11 @@
       <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3564,11 +3788,11 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3587,11 +3811,11 @@
       <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -3610,11 +3834,11 @@
       <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -3633,11 +3857,11 @@
       <c r="F7" t="s">
         <v>73</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -3656,11 +3880,11 @@
       <c r="F8" t="s">
         <v>73</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -3679,11 +3903,11 @@
       <c r="F9" t="s">
         <v>73</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -3702,11 +3926,11 @@
       <c r="F10" t="s">
         <v>73</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -3725,11 +3949,11 @@
       <c r="F11" t="s">
         <v>73</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -3748,11 +3972,11 @@
       <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -3771,11 +3995,11 @@
       <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -3794,11 +4018,11 @@
       <c r="F14" t="s">
         <v>73</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -3817,11 +4041,11 @@
       <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -3840,11 +4064,11 @@
       <c r="F16" t="s">
         <v>73</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>143</v>
       </c>
@@ -3863,11 +4087,11 @@
       <c r="F17" t="s">
         <v>73</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -3886,11 +4110,11 @@
       <c r="F18" t="s">
         <v>73</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -3909,12 +4133,12 @@
       <c r="F19" t="s">
         <v>73</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P19" xr:uid="{55F7CC5C-F498-024F-9615-E48C53A6F410}"/>
+  <autoFilter ref="A1:Q19" xr:uid="{55F7CC5C-F498-024F-9615-E48C53A6F410}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -3922,15 +4146,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3977,10 +4201,13 @@
         <v>87</v>
       </c>
       <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3999,11 +4226,11 @@
       <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4022,11 +4249,11 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -4045,11 +4272,11 @@
       <c r="F4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4068,7 +4295,7 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4080,15 +4307,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -4135,6 +4362,9 @@
         <v>87</v>
       </c>
       <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4146,15 +4376,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -4201,6 +4431,9 @@
         <v>87</v>
       </c>
       <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4215,7 +4448,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
